--- a/biology/Zoologie/Aulodonta/Aulodonta.xlsx
+++ b/biology/Zoologie/Aulodonta/Aulodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aulodonta sont une infra-classe d'oursins au sein de la sous-classe des oursins modernes (Euechinoidea). Ce taxon remplace en grande partie celui, considéré comme obsolète, des Acroechinoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infra-classe des Aulodonta a été créée en 1912 par le paléontologue américain Robert Tracy Jackson (d) (1861-1948) initialement comme un sous-ordre des Centrechinoida[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infra-classe des Aulodonta a été créée en 1912 par le paléontologue américain Robert Tracy Jackson (d) (1861-1948) initialement comme un sous-ordre des Centrechinoida
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade comporte des oursins réguliers, de forme globulaire avec la bouche centrée sur la face inférieure et l'anus à l'opposé, au sommet. Ces oursins sont caractérisés par leurs dents de forme incurvée (à l'exception des Echinothurioida)[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade comporte des oursins réguliers, de forme globulaire avec la bouche centrée sur la face inférieure et l'anus à l'opposé, au sommet. Ces oursins sont caractérisés par leurs dents de forme incurvée (à l'exception des Echinothurioida). 
 Ce sont des oursins relativement primitifs, et en dehors de la famille des Diadematidae, la plupart des espèces sont abyssales. 
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (11 avril 2022)[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (11 avril 2022) : 
 super-ordre Diadematacea Duncan, 1889 (emend. Mongiardino Koch et al., 2022) 
 ordre Diadematoida Duncan, 1889 — 2 familles
 ordre Micropygoida Kroh &amp; Smith, 2010  — 1 famille
@@ -619,7 +637,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Robert Tracy Jackson, Phylogeny of the Echini, with a revision of Palaeozoic species, Boston, The Society, 1912, 491 p. (OCLC 1228642, LCCN 12011235, DOI 10.5962/BHL.TITLE.4630, lire en ligne)</t>
         </is>
